--- a/Riesgos/Formatos/Matriz de riesgos v1.2.xlsx
+++ b/Riesgos/Formatos/Matriz de riesgos v1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filyvazquez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filyvazquez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>¿Comó llenar la matriz?</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>En caso de plan fallido: ¿Por qué no sirvió el plan?</t>
+  </si>
+  <si>
+    <t>V1.2</t>
   </si>
 </sst>
 </file>
@@ -551,21 +554,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -573,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -581,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,27 +599,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -617,17 +627,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -635,7 +645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
@@ -648,7 +658,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
